--- a/results/Boxes Texture ZoomOut PET.xlsx
+++ b/results/Boxes Texture ZoomOut PET.xlsx
@@ -512,7 +512,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$31:$G$51</c:f>
+              <c:f>Sheet1!$J$31:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -550,10 +550,10 @@
                   <c:v>3.6317090668855065E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3353276078355689E-3</c:v>
+                  <c:v>1.2268823524251491E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4954907626302424E-4</c:v>
+                  <c:v>5.2428938717354794E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5.260382308122601E-5</c:v>
@@ -565,16 +565,16 @@
                   <c:v>1.6122351238306071E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2872537592054198E-4</c:v>
+                  <c:v>8.9170540870054529E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4894874978034003E-3</c:v>
+                  <c:v>7.7269867183647094E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8378156756703986E-4</c:v>
+                  <c:v>1.5287634592293949E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7623575411547779E-4</c:v>
+                  <c:v>3.5649886329134549E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.8413204832622002E-3</c:v>
@@ -592,11 +592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="432245112"/>
-        <c:axId val="432246680"/>
+        <c:axId val="335909968"/>
+        <c:axId val="335906832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432245112"/>
+        <c:axId val="335909968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432246680"/>
+        <c:crossAx val="335906832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432246680"/>
+        <c:axId val="335906832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,24 +687,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432245112"/>
+        <c:crossAx val="335909968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85736403338926881"/>
-          <c:y val="6.6945606694560664E-2"/>
-          <c:w val="9.2161266726905042E-2"/>
-          <c:h val="0.26500675386288008"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1"/>
@@ -1595,11 +1586,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432245504"/>
-        <c:axId val="432241192"/>
+        <c:axId val="335905264"/>
+        <c:axId val="335908792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432245504"/>
+        <c:axId val="335905264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432241192"/>
+        <c:crossAx val="335908792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432241192"/>
+        <c:axId val="335908792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1629,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432245504"/>
+        <c:crossAx val="335905264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2121,11 +2112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503012864"/>
-        <c:axId val="503009336"/>
+        <c:axId val="335910360"/>
+        <c:axId val="335908400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="503012864"/>
+        <c:axId val="335910360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503009336"/>
+        <c:crossAx val="335908400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503009336"/>
+        <c:axId val="335908400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503012864"/>
+        <c:crossAx val="335910360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3076,7 @@
         <v>0.866313</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3115,7 +3106,7 @@
         <v>0.74234100000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3145,7 +3136,7 @@
         <v>0.13173399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3175,7 +3166,7 @@
         <v>0.15923599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3205,7 +3196,7 @@
         <v>0.200657</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3235,7 +3226,7 @@
         <v>1.6470199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3265,7 +3256,7 @@
         <v>0.431479</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3295,7 +3286,7 @@
         <v>0.183751</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3325,7 +3316,7 @@
         <v>0.43106800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3355,7 +3346,7 @@
         <v>0.271922</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3385,7 +3376,7 @@
         <v>0.40642800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3415,7 +3406,7 @@
         <v>0.29914800000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3445,7 +3436,7 @@
         <v>0.21060100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -3483,220 +3474,244 @@
         <v>2430.71</v>
       </c>
       <c r="C31">
-        <f>C6/$B31</f>
+        <f t="shared" ref="C31:I40" si="1">C6/$B31</f>
         <v>1.5107437744527318E-4</v>
       </c>
       <c r="D31">
-        <f>D6/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.2558264869112317E-4</v>
       </c>
       <c r="E31">
-        <f>E6/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.5711911334548341E-4</v>
       </c>
       <c r="F31">
-        <f>F6/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.6046546070901094E-4</v>
       </c>
       <c r="G31">
-        <f>G6/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.4291421025132574E-4</v>
       </c>
       <c r="H31">
-        <f>H6/$B31</f>
+        <f t="shared" si="1"/>
         <v>3.7975570923721877E-4</v>
       </c>
       <c r="I31">
-        <f>I6/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.465505963278219E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>+MIN(G31:I31)</f>
+        <v>1.4291421025132574E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
-        <f t="shared" ref="A32:A51" si="1">A31+1</f>
+        <f t="shared" ref="A32:A51" si="2">A31+1</f>
         <v>#REF!</v>
       </c>
       <c r="B32">
         <v>2517.15</v>
       </c>
       <c r="C32">
-        <f>C7/$B32</f>
+        <f t="shared" si="1"/>
         <v>6.7416324017241714E-5</v>
       </c>
       <c r="D32">
-        <f>D7/$B32</f>
+        <f t="shared" si="1"/>
         <v>6.1295115507617741E-5</v>
       </c>
       <c r="E32">
-        <f>E7/$B32</f>
+        <f t="shared" si="1"/>
         <v>6.8976024472121241E-5</v>
       </c>
       <c r="F32">
-        <f>F7/$B32</f>
+        <f t="shared" si="1"/>
         <v>5.0604850724033128E-5</v>
       </c>
       <c r="G32">
-        <f>G7/$B32</f>
+        <f t="shared" si="1"/>
         <v>6.0328148898555902E-5</v>
       </c>
       <c r="H32">
-        <f>H7/$B32</f>
+        <f t="shared" si="1"/>
         <v>8.378642512365175E-5</v>
       </c>
       <c r="I32">
-        <f>I7/$B32</f>
+        <f t="shared" si="1"/>
         <v>2.295290308483801E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" ref="J32:J51" si="3">+MIN(G32:I32)</f>
+        <v>6.0328148898555902E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B33">
         <v>84.957499999999996</v>
       </c>
       <c r="C33">
-        <f>C8/$B33</f>
+        <f t="shared" si="1"/>
         <v>3.0588588411852987E-3</v>
       </c>
       <c r="D33">
-        <f>D8/$B33</f>
+        <f t="shared" si="1"/>
         <v>1.5372862902039255E-3</v>
       </c>
       <c r="E33">
-        <f>E8/$B33</f>
+        <f t="shared" si="1"/>
         <v>1.5573433775711387E-3</v>
       </c>
       <c r="F33">
-        <f>F8/$B33</f>
+        <f t="shared" si="1"/>
         <v>2.0764970720654444E-3</v>
       </c>
       <c r="G33">
-        <f>G8/$B33</f>
+        <f t="shared" si="1"/>
         <v>1.6080157725921786E-3</v>
       </c>
       <c r="H33">
-        <f>H8/$B33</f>
+        <f t="shared" si="1"/>
         <v>5.2294853309007454E-2</v>
       </c>
       <c r="I33">
-        <f>I8/$B33</f>
+        <f t="shared" si="1"/>
         <v>1.1032327928670217E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>1.6080157725921786E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B34">
         <v>237.815</v>
       </c>
       <c r="C34">
-        <f>C9/$B34</f>
+        <f t="shared" si="1"/>
         <v>6.9737400920883883E-4</v>
       </c>
       <c r="D34">
-        <f>D9/$B34</f>
+        <f t="shared" si="1"/>
         <v>6.5347013434812775E-4</v>
       </c>
       <c r="E34">
-        <f>E9/$B34</f>
+        <f t="shared" si="1"/>
         <v>5.5677732691377757E-4</v>
       </c>
       <c r="F34">
-        <f>F9/$B34</f>
+        <f t="shared" si="1"/>
         <v>7.1368500725353732E-4</v>
       </c>
       <c r="G34">
-        <f>G9/$B34</f>
+        <f t="shared" si="1"/>
         <v>7.7686436936273999E-4</v>
       </c>
       <c r="H34">
-        <f>H9/$B34</f>
+        <f t="shared" si="1"/>
         <v>4.1295124361373338E-3</v>
       </c>
       <c r="I34">
-        <f>I9/$B34</f>
+        <f t="shared" si="1"/>
         <v>4.4815087357820155E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>7.7686436936273999E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B35">
         <v>162.11099999999999</v>
       </c>
       <c r="C35">
-        <f>C10/$B35</f>
+        <f t="shared" si="1"/>
         <v>1.131810919678492E-3</v>
       </c>
       <c r="D35">
-        <f>D10/$B35</f>
+        <f t="shared" si="1"/>
         <v>1.111306450518472E-3</v>
       </c>
       <c r="E35">
-        <f>E10/$B35</f>
+        <f t="shared" si="1"/>
         <v>1.2761502920838191E-3</v>
       </c>
       <c r="F35">
-        <f>F10/$B35</f>
+        <f t="shared" si="1"/>
         <v>1.2208116660806486E-3</v>
       </c>
       <c r="G35">
-        <f>G10/$B35</f>
+        <f t="shared" si="1"/>
         <v>1.1315333320996109E-3</v>
       </c>
       <c r="H35">
-        <f>H10/$B35</f>
+        <f t="shared" si="1"/>
         <v>3.2842496807742845E-3</v>
       </c>
       <c r="I35">
-        <f>I10/$B35</f>
+        <f t="shared" si="1"/>
         <v>2.174207795892938E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1.1315333320996109E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B36">
         <v>2540.5</v>
       </c>
       <c r="C36">
-        <f>C11/$B36</f>
+        <f t="shared" si="1"/>
         <v>7.3906317654005117E-5</v>
       </c>
       <c r="D36">
-        <f>D11/$B36</f>
+        <f t="shared" si="1"/>
         <v>6.7777602834087782E-5</v>
       </c>
       <c r="E36">
-        <f>E11/$B36</f>
+        <f t="shared" si="1"/>
         <v>4.4869907498523912E-5</v>
       </c>
       <c r="F36">
-        <f>F11/$B36</f>
+        <f t="shared" si="1"/>
         <v>5.1827592993505222E-5</v>
       </c>
       <c r="G36">
-        <f>G11/$B36</f>
+        <f t="shared" si="1"/>
         <v>5.0265302105884668E-5</v>
       </c>
       <c r="H36">
-        <f>H11/$B36</f>
+        <f t="shared" si="1"/>
         <v>6.9228104703798469E-5</v>
       </c>
       <c r="I36">
-        <f>I11/$B36</f>
+        <f t="shared" si="1"/>
         <v>1.4398622318441252E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>5.0265302105884668E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>A36+1</f>
         <v>#REF!</v>
@@ -3705,35 +3720,39 @@
         <v>1792.46</v>
       </c>
       <c r="C37">
-        <f>C12/$B37</f>
+        <f t="shared" si="1"/>
         <v>1.1420561686174308E-4</v>
       </c>
       <c r="D37">
-        <f>D12/$B37</f>
+        <f t="shared" si="1"/>
         <v>9.4284949175992775E-5</v>
       </c>
       <c r="E37">
-        <f>E12/$B37</f>
+        <f t="shared" si="1"/>
         <v>7.9788112426497666E-5</v>
       </c>
       <c r="F37">
-        <f>F12/$B37</f>
+        <f t="shared" si="1"/>
         <v>8.0658982627227388E-5</v>
       </c>
       <c r="G37">
-        <f>G12/$B37</f>
+        <f t="shared" si="1"/>
         <v>9.1468707809379276E-5</v>
       </c>
       <c r="H37">
-        <f>H12/$B37</f>
+        <f t="shared" si="1"/>
         <v>3.4511955636387979E-4</v>
       </c>
       <c r="I37">
-        <f>I12/$B37</f>
+        <f t="shared" si="1"/>
         <v>1.2280441404550173E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>9.1468707809379276E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>A37+1</f>
         <v>#REF!</v>
@@ -3742,513 +3761,569 @@
         <v>254.08500000000001</v>
       </c>
       <c r="C38">
-        <f>C13/$B38</f>
+        <f t="shared" si="1"/>
         <v>8.8836413011393828E-4</v>
       </c>
       <c r="D38">
-        <f>D13/$B38</f>
+        <f t="shared" si="1"/>
         <v>5.8470984119487568E-4</v>
       </c>
       <c r="E38">
-        <f>E13/$B38</f>
+        <f t="shared" si="1"/>
         <v>7.7424877501623473E-4</v>
       </c>
       <c r="F38">
-        <f>F13/$B38</f>
+        <f t="shared" si="1"/>
         <v>5.8982230355983226E-4</v>
       </c>
       <c r="G38">
-        <f>G13/$B38</f>
+        <f t="shared" si="1"/>
         <v>7.3136942361808055E-4</v>
       </c>
       <c r="H38">
-        <f>H13/$B38</f>
+        <f t="shared" si="1"/>
         <v>4.2852195131550469E-3</v>
       </c>
       <c r="I38">
-        <f>I13/$B38</f>
+        <f t="shared" si="1"/>
         <v>7.7198968849007225E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>7.3136942361808055E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B39">
         <v>980.98900000000003</v>
       </c>
       <c r="C39">
-        <f>C14/$B39</f>
+        <f t="shared" si="1"/>
         <v>2.0627754235776345E-4</v>
       </c>
       <c r="D39">
-        <f>D14/$B39</f>
+        <f t="shared" si="1"/>
         <v>1.705707199571045E-4</v>
       </c>
       <c r="E39">
-        <f>E14/$B39</f>
+        <f t="shared" si="1"/>
         <v>1.7216604875284022E-4</v>
       </c>
       <c r="F39">
-        <f>F14/$B39</f>
+        <f t="shared" si="1"/>
         <v>1.8829976686792613E-4</v>
       </c>
       <c r="G39">
-        <f>G14/$B39</f>
+        <f t="shared" si="1"/>
         <v>1.7528331102591364E-4</v>
       </c>
       <c r="H39">
-        <f>H14/$B39</f>
+        <f t="shared" si="1"/>
         <v>2.3157955899607435E-4</v>
       </c>
       <c r="I39">
-        <f>I14/$B39</f>
+        <f t="shared" si="1"/>
         <v>2.0429484938159348E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1.7528331102591364E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B40">
         <v>326.94499999999999</v>
       </c>
       <c r="C40">
-        <f>C15/$B40</f>
+        <f t="shared" si="1"/>
         <v>8.8324030035632909E-4</v>
       </c>
       <c r="D40">
-        <f>D15/$B40</f>
+        <f t="shared" si="1"/>
         <v>7.1918518405236363E-4</v>
       </c>
       <c r="E40">
-        <f>E15/$B40</f>
+        <f t="shared" si="1"/>
         <v>4.3176986954992434E-4</v>
       </c>
       <c r="F40">
-        <f>F15/$B40</f>
+        <f t="shared" si="1"/>
         <v>5.1119913135236816E-4</v>
       </c>
       <c r="G40">
-        <f>G15/$B40</f>
+        <f t="shared" si="1"/>
         <v>5.1538943859058865E-4</v>
       </c>
       <c r="H40">
-        <f>H15/$B40</f>
+        <f t="shared" si="1"/>
         <v>4.4590680389667986E-3</v>
       </c>
       <c r="I40">
-        <f>I15/$B40</f>
+        <f t="shared" si="1"/>
         <v>2.4450718010674581E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>5.1538943859058865E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B41">
         <v>3874.98</v>
       </c>
       <c r="C41">
-        <f>C16/$B41</f>
+        <f t="shared" ref="C41:I50" si="4">C16/$B41</f>
         <v>4.167453767503316E-5</v>
       </c>
       <c r="D41">
-        <f>D16/$B41</f>
+        <f t="shared" si="4"/>
         <v>4.1352729562475157E-5</v>
       </c>
       <c r="E41">
-        <f>E16/$B41</f>
+        <f t="shared" si="4"/>
         <v>3.737774130447125E-5</v>
       </c>
       <c r="F41">
-        <f>F16/$B41</f>
+        <f t="shared" si="4"/>
         <v>4.942399702708143E-5</v>
       </c>
       <c r="G41">
-        <f>G16/$B41</f>
+        <f t="shared" si="4"/>
         <v>3.6317090668855065E-5</v>
       </c>
       <c r="H41">
-        <f>H16/$B41</f>
+        <f t="shared" si="4"/>
         <v>1.4108743787064705E-4</v>
       </c>
       <c r="I41">
-        <f>I16/$B41</f>
+        <f t="shared" si="4"/>
         <v>2.235657990492854E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>3.6317090668855065E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B42">
         <v>113.99299999999999</v>
       </c>
       <c r="C42">
-        <f>C17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.1440088426482328E-3</v>
       </c>
       <c r="D42">
-        <f>D17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.3526269156878053E-3</v>
       </c>
       <c r="E42">
-        <f>E17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.5258305334538086E-3</v>
       </c>
       <c r="F42">
-        <f>F17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.5215232514277195E-3</v>
       </c>
       <c r="G42">
-        <f>G17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.3353276078355689E-3</v>
       </c>
       <c r="H42">
-        <f>H17/$B42</f>
+        <f t="shared" si="4"/>
         <v>1.2268823524251491E-3</v>
       </c>
       <c r="I42">
-        <f>I17/$B42</f>
+        <f t="shared" si="4"/>
         <v>6.5121630275543239E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>1.2268823524251491E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B43">
         <v>251.262</v>
       </c>
       <c r="C43">
-        <f>C18/$B43</f>
+        <f t="shared" si="4"/>
         <v>1.4764827152534007E-3</v>
       </c>
       <c r="D43">
-        <f>D18/$B43</f>
+        <f t="shared" si="4"/>
         <v>6.3926101041940277E-4</v>
       </c>
       <c r="E43">
-        <f>E18/$B43</f>
+        <f t="shared" si="4"/>
         <v>5.2699174566786858E-4</v>
       </c>
       <c r="F43">
-        <f>F18/$B43</f>
+        <f t="shared" si="4"/>
         <v>6.4161711679442172E-4</v>
       </c>
       <c r="G43">
-        <f>G18/$B43</f>
+        <f t="shared" si="4"/>
         <v>6.4954907626302424E-4</v>
       </c>
       <c r="H43">
-        <f>H18/$B43</f>
+        <f t="shared" si="4"/>
         <v>5.6198310926443317E-4</v>
       </c>
       <c r="I43">
-        <f>I18/$B43</f>
+        <f t="shared" si="4"/>
         <v>5.2428938717354794E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>5.2428938717354794E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B44">
         <v>2592.15</v>
       </c>
       <c r="C44">
-        <f>C19/$B44</f>
+        <f t="shared" si="4"/>
         <v>4.6445614644214262E-5</v>
       </c>
       <c r="D44">
-        <f>D19/$B44</f>
+        <f t="shared" si="4"/>
         <v>5.2913604536774494E-5</v>
       </c>
       <c r="E44">
-        <f>E19/$B44</f>
+        <f t="shared" si="4"/>
         <v>5.275273421676986E-5</v>
       </c>
       <c r="F44">
-        <f>F19/$B44</f>
+        <f t="shared" si="4"/>
         <v>5.6125995794996431E-5</v>
       </c>
       <c r="G44">
-        <f>G19/$B44</f>
+        <f t="shared" si="4"/>
         <v>5.260382308122601E-5</v>
       </c>
       <c r="H44">
-        <f>H19/$B44</f>
+        <f t="shared" si="4"/>
         <v>6.125108500665471E-5</v>
       </c>
       <c r="I44">
-        <f>I19/$B44</f>
+        <f t="shared" si="4"/>
         <v>6.1430086993422448E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>5.260382308122601E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B45">
         <v>295.97000000000003</v>
       </c>
       <c r="C45">
-        <f>C20/$B45</f>
+        <f t="shared" si="4"/>
         <v>6.2673243909855717E-4</v>
       </c>
       <c r="D45">
-        <f>D20/$B45</f>
+        <f t="shared" si="4"/>
         <v>5.9115450890292933E-4</v>
       </c>
       <c r="E45">
-        <f>E20/$B45</f>
+        <f t="shared" si="4"/>
         <v>6.2247525087002055E-4</v>
       </c>
       <c r="F45">
-        <f>F20/$B45</f>
+        <f t="shared" si="4"/>
         <v>5.7471027469000228E-4</v>
       </c>
       <c r="G45">
-        <f>G20/$B45</f>
+        <f t="shared" si="4"/>
         <v>4.8181572456667903E-4</v>
       </c>
       <c r="H45">
-        <f>H20/$B45</f>
+        <f t="shared" si="4"/>
         <v>6.3077338919485077E-4</v>
       </c>
       <c r="I45">
-        <f>I20/$B45</f>
+        <f t="shared" si="4"/>
         <v>6.7796398283609817E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>4.8181572456667903E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B46">
         <v>187.91800000000001</v>
       </c>
       <c r="C46">
-        <f>C21/$B46</f>
+        <f t="shared" si="4"/>
         <v>1.111729584180334E-3</v>
       </c>
       <c r="D46">
-        <f>D21/$B46</f>
+        <f t="shared" si="4"/>
         <v>1.2692610606754009E-3</v>
       </c>
       <c r="E46">
-        <f>E21/$B46</f>
+        <f t="shared" si="4"/>
         <v>8.4424057301588995E-4</v>
       </c>
       <c r="F46">
-        <f>F21/$B46</f>
+        <f t="shared" si="4"/>
         <v>1.4300865271022467E-3</v>
       </c>
       <c r="G46">
-        <f>G21/$B46</f>
+        <f t="shared" si="4"/>
         <v>1.6122351238306071E-3</v>
       </c>
       <c r="H46">
-        <f>H21/$B46</f>
+        <f t="shared" si="4"/>
         <v>4.108031162528337E-3</v>
       </c>
       <c r="I46">
-        <f>I21/$B46</f>
+        <f t="shared" si="4"/>
         <v>8.7645675241328665E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>1.6122351238306071E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B47">
         <v>2239.17</v>
       </c>
       <c r="C47">
-        <f>C22/$B47</f>
+        <f t="shared" si="4"/>
         <v>1.1202052546255978E-4</v>
       </c>
       <c r="D47">
-        <f>D22/$B47</f>
+        <f t="shared" si="4"/>
         <v>1.1527798246671757E-4</v>
       </c>
       <c r="E47">
-        <f>E22/$B47</f>
+        <f t="shared" si="4"/>
         <v>6.8602651875471711E-5</v>
       </c>
       <c r="F47">
-        <f>F22/$B47</f>
+        <f t="shared" si="4"/>
         <v>8.7965630121875511E-5</v>
       </c>
       <c r="G47">
-        <f>G22/$B47</f>
+        <f t="shared" si="4"/>
         <v>1.2872537592054198E-4</v>
       </c>
       <c r="H47">
-        <f>H22/$B47</f>
+        <f t="shared" si="4"/>
         <v>8.9170540870054529E-5</v>
       </c>
       <c r="I47">
-        <f>I22/$B47</f>
+        <f t="shared" si="4"/>
         <v>1.9269595430449675E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>8.9170540870054529E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B48">
         <v>176.40899999999999</v>
       </c>
       <c r="C48">
-        <f>C23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.0581602979439825E-3</v>
       </c>
       <c r="D48">
-        <f>D23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.4520460974213334E-3</v>
       </c>
       <c r="E48">
-        <f>E23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.1217511578207461E-3</v>
       </c>
       <c r="F48">
-        <f>F23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.2306855092427257E-3</v>
       </c>
       <c r="G48">
-        <f>G23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.4894874978034003E-3</v>
       </c>
       <c r="H48">
-        <f>H23/$B48</f>
+        <f t="shared" si="4"/>
         <v>7.7269867183647094E-4</v>
       </c>
       <c r="I48">
-        <f>I23/$B48</f>
+        <f t="shared" si="4"/>
         <v>1.0416191917645926E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>7.7269867183647094E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B49">
         <v>1024.3900000000001</v>
       </c>
       <c r="C49">
-        <f>C24/$B49</f>
+        <f t="shared" si="4"/>
         <v>2.1271488397973427E-4</v>
       </c>
       <c r="D49">
-        <f>D24/$B49</f>
+        <f t="shared" si="4"/>
         <v>1.7658704204453381E-4</v>
       </c>
       <c r="E49">
-        <f>E24/$B49</f>
+        <f t="shared" si="4"/>
         <v>1.7225568387040091E-4</v>
       </c>
       <c r="F49">
-        <f>F24/$B49</f>
+        <f t="shared" si="4"/>
         <v>1.9425218910766405E-4</v>
       </c>
       <c r="G49">
-        <f>G24/$B49</f>
+        <f t="shared" si="4"/>
         <v>1.8378156756703986E-4</v>
       </c>
       <c r="H49">
-        <f>H24/$B49</f>
+        <f t="shared" si="4"/>
         <v>1.5287634592293949E-4</v>
       </c>
       <c r="I49">
-        <f>I24/$B49</f>
+        <f t="shared" si="4"/>
         <v>4.2080457638204197E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>1.5287634592293949E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B50">
         <v>540.15599999999995</v>
       </c>
       <c r="C50">
-        <f>C25/$B50</f>
+        <f t="shared" si="4"/>
         <v>4.1129784728856112E-4</v>
       </c>
       <c r="D50">
-        <f>D25/$B50</f>
+        <f t="shared" si="4"/>
         <v>4.0601233717666753E-4</v>
       </c>
       <c r="E50">
-        <f>E25/$B50</f>
+        <f t="shared" si="4"/>
         <v>4.2595287287376242E-4</v>
       </c>
       <c r="F50">
-        <f>F25/$B50</f>
+        <f t="shared" si="4"/>
         <v>4.6610979050496528E-4</v>
       </c>
       <c r="G50">
-        <f>G25/$B50</f>
+        <f t="shared" si="4"/>
         <v>3.7623575411547779E-4</v>
       </c>
       <c r="H50">
-        <f>H25/$B50</f>
+        <f t="shared" si="4"/>
         <v>3.5649886329134549E-4</v>
       </c>
       <c r="I50">
-        <f>I25/$B50</f>
+        <f t="shared" si="4"/>
         <v>5.0341382859766441E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>3.5649886329134549E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="B51">
         <v>166.12100000000001</v>
       </c>
       <c r="C51">
-        <f>C26/$B51</f>
+        <f t="shared" ref="C51:I60" si="5">C26/$B51</f>
         <v>1.1884710542315541E-3</v>
       </c>
       <c r="D51">
-        <f>D26/$B51</f>
+        <f t="shared" si="5"/>
         <v>1.8808458894420332E-3</v>
       </c>
       <c r="E51">
-        <f>E26/$B51</f>
+        <f t="shared" si="5"/>
         <v>1.1458996755377103E-3</v>
       </c>
       <c r="F51">
-        <f>F26/$B51</f>
+        <f t="shared" si="5"/>
         <v>1.725200305801193E-3</v>
       </c>
       <c r="G51">
-        <f>G26/$B51</f>
+        <f t="shared" si="5"/>
         <v>1.8413204832622002E-3</v>
       </c>
       <c r="H51">
-        <f>H26/$B51</f>
+        <f t="shared" si="5"/>
         <v>3.0054478362157703E-3</v>
       </c>
       <c r="I51">
-        <f>I26/$B51</f>
+        <f t="shared" si="5"/>
         <v>2.4465780966885582E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1.8413204832622002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/results/Boxes Texture ZoomOut PET.xlsx
+++ b/results/Boxes Texture ZoomOut PET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg*1000</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
   </si>
 </sst>
 </file>
@@ -592,11 +607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="335909968"/>
-        <c:axId val="335906832"/>
+        <c:axId val="227275720"/>
+        <c:axId val="227274152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="335909968"/>
+        <c:axId val="227275720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335906832"/>
+        <c:crossAx val="227274152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335906832"/>
+        <c:axId val="227274152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335909968"/>
+        <c:crossAx val="227275720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,11 +1601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="335905264"/>
-        <c:axId val="335908792"/>
+        <c:axId val="227276504"/>
+        <c:axId val="227273760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335905264"/>
+        <c:axId val="227276504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335908792"/>
+        <c:crossAx val="227273760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1607,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335908792"/>
+        <c:axId val="227273760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1620,7 +1635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335905264"/>
+        <c:crossAx val="227276504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2112,11 +2127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="335910360"/>
-        <c:axId val="335908400"/>
+        <c:axId val="227279248"/>
+        <c:axId val="227279640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="335910360"/>
+        <c:axId val="227279248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335908400"/>
+        <c:crossAx val="227279640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335908400"/>
+        <c:axId val="227279640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335910360"/>
+        <c:crossAx val="227279248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,7 +2277,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2641,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,7 +3091,7 @@
         <v>0.866313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3106,7 +3121,7 @@
         <v>0.74234100000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3136,7 +3151,7 @@
         <v>0.13173399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3166,7 +3181,7 @@
         <v>0.15923599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3196,7 +3211,7 @@
         <v>0.200657</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3226,7 +3241,7 @@
         <v>1.6470199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3256,7 +3271,7 @@
         <v>0.431479</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3286,7 +3301,7 @@
         <v>0.183751</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3316,7 +3331,7 @@
         <v>0.43106800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3346,7 +3361,7 @@
         <v>0.271922</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3376,7 +3391,7 @@
         <v>0.40642800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3406,7 +3421,7 @@
         <v>0.29914800000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3436,7 +3451,7 @@
         <v>0.21060100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3464,11 +3479,32 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>2430.71</v>
@@ -3505,11 +3541,35 @@
         <f>+MIN(G31:I31)</f>
         <v>1.4291421025132574E-4</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>1.2558264869112317E-4</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f t="shared" ref="A32:A51" si="2">A31+1</f>
-        <v>#REF!</v>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:A51" si="3">A31+1</f>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>2517.15</v>
@@ -3543,14 +3603,38 @@
         <v>2.295290308483801E-4</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J51" si="3">+MIN(G32:I32)</f>
+        <f t="shared" ref="J32:J51" si="4">+MIN(G32:I32)</f>
         <v>6.0328148898555902E-5</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L51" si="5">MIN(C32:J32)</f>
+        <v>5.0604850724033128E-5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P51" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q52" si="7">IF($L32=J32,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>84.957499999999996</v>
@@ -3584,14 +3668,38 @@
         <v>1.1032327928670217E-2</v>
       </c>
       <c r="J33">
+        <f t="shared" si="4"/>
+        <v>1.6080157725921786E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>1.5372862902039255E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f t="shared" si="3"/>
-        <v>1.6080157725921786E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>237.815</v>
@@ -3625,14 +3733,38 @@
         <v>4.4815087357820155E-3</v>
       </c>
       <c r="J34">
+        <f t="shared" si="4"/>
+        <v>7.7686436936273999E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>5.5677732691377757E-4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
         <f t="shared" si="3"/>
-        <v>7.7686436936273999E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>162.11099999999999</v>
@@ -3666,14 +3798,38 @@
         <v>2.174207795892938E-3</v>
       </c>
       <c r="J35">
+        <f t="shared" si="4"/>
+        <v>1.1315333320996109E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>1.111306450518472E-3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
         <f t="shared" si="3"/>
-        <v>1.1315333320996109E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>2540.5</v>
@@ -3707,14 +3863,38 @@
         <v>1.4398622318441252E-4</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0265302105884668E-5</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>4.4869907498523912E-5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f>A36+1</f>
-        <v>#REF!</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>1792.46</v>
@@ -3748,14 +3928,38 @@
         <v>1.2280441404550173E-4</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1468707809379276E-5</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>7.9788112426497666E-5</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f>A37+1</f>
-        <v>#REF!</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>254.08500000000001</v>
@@ -3789,14 +3993,38 @@
         <v>7.7198968849007225E-3</v>
       </c>
       <c r="J38">
+        <f t="shared" si="4"/>
+        <v>7.3136942361808055E-4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>5.8470984119487568E-4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="3"/>
-        <v>7.3136942361808055E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>980.98900000000003</v>
@@ -3830,14 +4058,38 @@
         <v>2.0429484938159348E-4</v>
       </c>
       <c r="J39">
+        <f t="shared" si="4"/>
+        <v>1.7528331102591364E-4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>1.705707199571045E-4</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="3"/>
-        <v>1.7528331102591364E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>326.94499999999999</v>
@@ -3871,459 +4123,856 @@
         <v>2.4450718010674581E-3</v>
       </c>
       <c r="J40">
+        <f t="shared" si="4"/>
+        <v>5.1538943859058865E-4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>4.3176986954992434E-4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="3"/>
-        <v>5.1538943859058865E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>3874.98</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:I50" si="4">C16/$B41</f>
+        <f t="shared" ref="C41:I50" si="8">C16/$B41</f>
         <v>4.167453767503316E-5</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1352729562475157E-5</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.737774130447125E-5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.942399702708143E-5</v>
       </c>
       <c r="G41">
+        <f t="shared" si="8"/>
+        <v>3.6317090668855065E-5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>1.4108743787064705E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>2.235657990492854E-4</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="4"/>
         <v>3.6317090668855065E-5</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="4"/>
-        <v>1.4108743787064705E-4</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="4"/>
-        <v>2.235657990492854E-4</v>
-      </c>
-      <c r="J41">
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>3.6317090668855065E-5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="3"/>
-        <v>3.6317090668855065E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>113.99299999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1440088426482328E-3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3526269156878053E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5258305334538086E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5215232514277195E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3353276078355689E-3</v>
       </c>
       <c r="H42">
+        <f t="shared" si="8"/>
+        <v>1.2268823524251491E-3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>6.5121630275543239E-3</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="4"/>
         <v>1.2268823524251491E-3</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="4"/>
-        <v>6.5121630275543239E-3</v>
-      </c>
-      <c r="J42">
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>1.1440088426482328E-3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="3"/>
-        <v>1.2268823524251491E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>251.262</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4764827152534007E-3</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3926101041940277E-4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2699174566786858E-4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4161711679442172E-4</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4954907626302424E-4</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6198310926443317E-4</v>
       </c>
       <c r="I43">
+        <f t="shared" si="8"/>
+        <v>5.2428938717354794E-4</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
         <v>5.2428938717354794E-4</v>
       </c>
-      <c r="J43">
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>5.2428938717354794E-4</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="3"/>
-        <v>5.2428938717354794E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>2592.15</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6445614644214262E-5</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2913604536774494E-5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.275273421676986E-5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6125995794996431E-5</v>
       </c>
       <c r="G44">
+        <f t="shared" si="8"/>
+        <v>5.260382308122601E-5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>6.125108500665471E-5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>6.1430086993422448E-5</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
         <v>5.260382308122601E-5</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="4"/>
-        <v>6.125108500665471E-5</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>6.1430086993422448E-5</v>
-      </c>
-      <c r="J44">
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>4.6445614644214262E-5</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="3"/>
-        <v>5.260382308122601E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>295.97000000000003</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2673243909855717E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9115450890292933E-4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2247525087002055E-4</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7471027469000228E-4</v>
       </c>
       <c r="G45">
+        <f t="shared" si="8"/>
+        <v>4.8181572456667903E-4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>6.3077338919485077E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>6.7796398283609817E-4</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
         <v>4.8181572456667903E-4</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="4"/>
-        <v>6.3077338919485077E-4</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="4"/>
-        <v>6.7796398283609817E-4</v>
-      </c>
-      <c r="J45">
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>4.8181572456667903E-4</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="3"/>
-        <v>4.8181572456667903E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>187.91800000000001</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.111729584180334E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2692610606754009E-3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4424057301588995E-4</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4300865271022467E-3</v>
       </c>
       <c r="G46">
+        <f t="shared" si="8"/>
+        <v>1.6122351238306071E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>4.108031162528337E-3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>8.7645675241328665E-3</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="4"/>
         <v>1.6122351238306071E-3</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="4"/>
-        <v>4.108031162528337E-3</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="4"/>
-        <v>8.7645675241328665E-3</v>
-      </c>
-      <c r="J46">
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>8.4424057301588995E-4</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
         <f t="shared" si="3"/>
-        <v>1.6122351238306071E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>2239.17</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1202052546255978E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1527798246671757E-4</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8602651875471711E-5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.7965630121875511E-5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2872537592054198E-4</v>
       </c>
       <c r="H47">
+        <f t="shared" si="8"/>
+        <v>8.9170540870054529E-5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>1.9269595430449675E-4</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="4"/>
         <v>8.9170540870054529E-5</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="4"/>
-        <v>1.9269595430449675E-4</v>
-      </c>
-      <c r="J47">
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>6.8602651875471711E-5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="3"/>
-        <v>8.9170540870054529E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>176.40899999999999</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0581602979439825E-3</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4520460974213334E-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1217511578207461E-3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2306855092427257E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4894874978034003E-3</v>
       </c>
       <c r="H48">
+        <f t="shared" si="8"/>
+        <v>7.7269867183647094E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>1.0416191917645926E-3</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="4"/>
         <v>7.7269867183647094E-4</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="4"/>
-        <v>1.0416191917645926E-3</v>
-      </c>
-      <c r="J48">
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>7.7269867183647094E-4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
         <f t="shared" si="3"/>
-        <v>7.7269867183647094E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>1024.3900000000001</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1271488397973427E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7658704204453381E-4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7225568387040091E-4</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9425218910766405E-4</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8378156756703986E-4</v>
       </c>
       <c r="H49">
+        <f t="shared" si="8"/>
+        <v>1.5287634592293949E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>4.2080457638204197E-4</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="4"/>
         <v>1.5287634592293949E-4</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>4.2080457638204197E-4</v>
-      </c>
-      <c r="J49">
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>1.5287634592293949E-4</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
         <f t="shared" si="3"/>
-        <v>1.5287634592293949E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>540.15599999999995</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1129784728856112E-4</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0601233717666753E-4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2595287287376242E-4</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6610979050496528E-4</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.7623575411547779E-4</v>
       </c>
       <c r="H50">
+        <f t="shared" si="8"/>
+        <v>3.5649886329134549E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>5.0341382859766441E-4</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
         <v>3.5649886329134549E-4</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="4"/>
-        <v>5.0341382859766441E-4</v>
-      </c>
-      <c r="J50">
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>3.5649886329134549E-4</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
         <f t="shared" si="3"/>
-        <v>3.5649886329134549E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>166.12100000000001</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:I60" si="5">C26/$B51</f>
+        <f t="shared" ref="C51:I51" si="9">C26/$B51</f>
         <v>1.1884710542315541E-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8808458894420332E-3</v>
       </c>
       <c r="E51">
+        <f t="shared" si="9"/>
+        <v>1.1458996755377103E-3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="9"/>
+        <v>1.725200305801193E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>1.8413204832622002E-3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>3.0054478362157703E-3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="9"/>
+        <v>2.4465780966885582E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>1.8413204832622002E-3</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="5"/>
         <v>1.1458996755377103E-3</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="5"/>
-        <v>1.725200305801193E-3</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>1.8413204832622002E-3</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="5"/>
-        <v>3.0054478362157703E-3</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="5"/>
-        <v>2.4465780966885582E-3</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>1.8413204832622002E-3</v>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE(B41:B51)</f>
+        <v>1042.0471818181816</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:J52" si="10">AVERAGE(C41:C51)</f>
+        <v>6.7543075840056043E-4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>7.2521265257600661E-4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>5.9492096550062918E-4</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="10"/>
+        <v>7.2524550796499018E-4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>7.4430901135587454E-4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="10"/>
+        <v>1.0097000722206048E-3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>1.9426446777706273E-3</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="10"/>
+        <v>6.4970076426627962E-4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <f>AVERAGE(M41:M51)*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="N52">
+        <f>AVERAGE(N41:N51)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>AVERAGE(O41:O51)*100</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="P52">
+        <f>AVERAGE(P41:P51)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>AVERAGE(Q41:Q51)*100</f>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="R52">
+        <f>SUM(M52:Q52)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <f>B52*1000</f>
+        <v>1042047.1818181815</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:J53" si="11">C52*1000</f>
+        <v>0.67543075840056044</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="11"/>
+        <v>0.72521265257600664</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>0.59492096550062923</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="11"/>
+        <v>0.72524550796499021</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="11"/>
+        <v>0.74430901135587457</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1.0097000722206049</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="11"/>
+        <v>1.9426446777706272</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="11"/>
+        <v>0.64970076426627965</v>
       </c>
     </row>
   </sheetData>

--- a/results/Boxes Texture ZoomOut PET.xlsx
+++ b/results/Boxes Texture ZoomOut PET.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -57,9 +52,6 @@
     <t>FVR</t>
   </si>
   <si>
-    <t>FM</t>
-  </si>
-  <si>
     <t>FM-3D</t>
   </si>
   <si>
@@ -82,6 +74,15 @@
   </si>
   <si>
     <t>FM-2D</t>
+  </si>
+  <si>
+    <t>FFVR</t>
+  </si>
+  <si>
+    <t>FVR-3D</t>
+  </si>
+  <si>
+    <t>actual results from</t>
   </si>
 </sst>
 </file>
@@ -140,7 +141,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -167,7 +168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FM</c:v>
+                  <c:v>FM-2D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,7 +520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FVR</c:v>
+                  <c:v>FVR-3D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -532,37 +533,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.4291421025132574E-4</c:v>
+                  <c:v>1.465505963278219E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0328148898555902E-5</c:v>
+                  <c:v>8.378642512365175E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6080157725921786E-3</c:v>
+                  <c:v>1.1032327928670217E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7686436936273999E-4</c:v>
+                  <c:v>4.1295124361373338E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1315333320996109E-3</c:v>
+                  <c:v>2.174207795892938E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0265302105884668E-5</c:v>
+                  <c:v>6.9228104703798469E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1468707809379276E-5</c:v>
+                  <c:v>1.2280441404550173E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3136942361808055E-4</c:v>
+                  <c:v>4.2852195131550469E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7528331102591364E-4</c:v>
+                  <c:v>2.0429484938159348E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1538943859058865E-4</c:v>
+                  <c:v>2.4450718010674581E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6317090668855065E-5</c:v>
+                  <c:v>1.4108743787064705E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.2268823524251491E-3</c:v>
@@ -571,13 +572,13 @@
                   <c:v>5.2428938717354794E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.260382308122601E-5</c:v>
+                  <c:v>6.125108500665471E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8181572456667903E-4</c:v>
+                  <c:v>6.3077338919485077E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6122351238306071E-3</c:v>
+                  <c:v>4.108031162528337E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8.9170540870054529E-5</c:v>
@@ -592,7 +593,7 @@
                   <c:v>3.5649886329134549E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8413204832622002E-3</c:v>
+                  <c:v>2.4465780966885582E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,11 +608,619 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="227275720"/>
-        <c:axId val="227274152"/>
+        <c:axId val="85109760"/>
+        <c:axId val="85120128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="227275720"/>
+        <c:axId val="85109760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Frame Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85120128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85120128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200" baseline="0"/>
+                  <a:t> Reduction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85109760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FM-2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5107437744527318E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7416324017241714E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0588588411852987E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9737400920883883E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.131810919678492E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3906317654005117E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1420561686174308E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8836413011393828E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0627754235776345E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8324030035632909E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.167453767503316E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1440088426482328E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4764827152534007E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6445614644214262E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2673243909855717E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.111729584180334E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1202052546255978E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0581602979439825E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1271488397973427E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1129784728856112E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1884710542315541E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FM-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.2558264869112317E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1295115507617741E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5372862902039255E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5347013434812775E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.111306450518472E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7777602834087782E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4284949175992775E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8470984119487568E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.705707199571045E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1918518405236363E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1352729562475157E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3526269156878053E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3926101041940277E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2913604536774494E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9115450890292933E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2692610606754009E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1527798246671757E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4520460974213334E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7658704204453381E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0601233717666753E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8808458894420332E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5711911334548341E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8976024472121241E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5573433775711387E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5677732691377757E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2761502920838191E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4869907498523912E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9788112426497666E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7424877501623473E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7216604875284022E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3176986954992434E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.737774130447125E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5258305334538086E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2699174566786858E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.275273421676986E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2247525087002055E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4424057301588995E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8602651875471711E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1217511578207461E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7225568387040091E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2595287287376242E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1458996755377103E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$31:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.6046546070901094E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0604850724033128E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0764970720654444E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1368500725353732E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2208116660806486E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1827592993505222E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0658982627227388E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8982230355983226E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8829976686792613E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1119913135236816E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.942399702708143E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5215232514277195E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4161711679442172E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6125995794996431E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7471027469000228E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4300865271022467E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7965630121875511E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2306855092427257E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9425218910766405E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6610979050496528E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.725200305801193E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FVR-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$31:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.4291421025132574E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0328148898555902E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6080157725921786E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7686436936273999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1315333320996109E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0265302105884668E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1468707809379276E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3136942361808055E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7528331102591364E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1538943859058865E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6317090668855065E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3353276078355689E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4954907626302424E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.260382308122601E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8181572456667903E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6122351238306071E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2872537592054198E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4894874978034003E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8378156756703986E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7623575411547779E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8413204832622002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="85749120"/>
+        <c:axId val="85755392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85749120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +1258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227274152"/>
+        <c:crossAx val="85755392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227274152"/>
+        <c:axId val="85755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,1527 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227275720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>none</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.243114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.305508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27890999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15784500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26075399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.199375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.167134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14075199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15132799999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.228467</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18052799999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19687199999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14671699999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16264600000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16566600000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.143702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15523999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.239789</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24171599999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23797599999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.194968</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.204182</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.35796699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.20270099999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.20316500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.27773799999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.317276</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36721799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16969699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25987300000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16584599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.183479</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18775900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.204709</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22572</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.20235600000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.288771</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16148799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.130409</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.37098399999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.120394</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18549399999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.20891399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25083299999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.186669</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21790300000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.222165</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.19742999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24785399999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19415499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fm3d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.23292299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28379799999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.305255</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15428900000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.130604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15540499999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18015500000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17218900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16900200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.148566</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.167328</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.23513400000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16024099999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15418999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16062199999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.13716</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17496400000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23851700000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.258127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25615399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.180894</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21931</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.312448</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23860400000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.21779200000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>icp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.232682</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34900999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.381911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.173623</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13230800000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20687800000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.113992</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14301700000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19672500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16889299999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14116500000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14483799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17393400000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.132413</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.136743</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18423400000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15864800000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.153613</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19788700000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.176457</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.23008100000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.190358</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.200817</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.17264599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pca</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.23621300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.324019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39004499999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12737999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17641399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16972499999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.197907</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13166800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14457800000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.149865</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.167134</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19151699999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17344300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.161214</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14548700000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.170097</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.26873900000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19697000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.21710399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.19899</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.251772</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.28659200000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.21590699999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.204429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$4:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.26152300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.40687699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.347383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15185499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13661300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18475</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18343400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12769900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16395399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18583</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17195099999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16850399999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14072799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15221799999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16320699999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.13635700000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.14260300000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.30296800000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28823799999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.26275900000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.18826399999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.20322599999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.30588199999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.212979</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24073800000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pc2 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$4:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.77998500000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43475200000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92307600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21090300000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4428400000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98206000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53241300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.175874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61861299999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0888100000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22717699999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.45787</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.54671099999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13985600000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.141205</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.158772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18668999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77197300000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19966800000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13631099999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15660499999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.19256499999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.49926799999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.230628</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.323986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pc3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$4:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.25146299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.280613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35622199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57775900000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93727899999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0657700000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35246300000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36579699999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22012200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9615100000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.20041100000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.799404</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.866313</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74234100000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13173399999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15923599999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.200657</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6470199999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.431479</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.183751</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.43106800000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.271922</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.40642800000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.29914800000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.21060100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="227276504"/>
-        <c:axId val="227273760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="227276504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227273760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227273760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227276504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$31:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.5107437744527318E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7416324017241714E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0588588411852987E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9737400920883883E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.131810919678492E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3906317654005117E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1420561686174308E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8836413011393828E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0627754235776345E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8324030035632909E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.167453767503316E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1440088426482328E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4764827152534007E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6445614644214262E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2673243909855717E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.111729584180334E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1202052546255978E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0581602979439825E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.1271488397973427E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.1129784728856112E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1884710542315541E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FM-3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$31:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.2558264869112317E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1295115507617741E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5372862902039255E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5347013434812775E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.111306450518472E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7777602834087782E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4284949175992775E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8470984119487568E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.705707199571045E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1918518405236363E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1352729562475157E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3526269156878053E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3926101041940277E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2913604536774494E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9115450890292933E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2692610606754009E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1527798246671757E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4520460974213334E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7658704204453381E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.0601233717666753E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8808458894420332E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$31:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.5711911334548341E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8976024472121241E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5573433775711387E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5677732691377757E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2761502920838191E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4869907498523912E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.9788112426497666E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.7424877501623473E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7216604875284022E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3176986954992434E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.737774130447125E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5258305334538086E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.2699174566786858E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.275273421676986E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2247525087002055E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.4424057301588995E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.8602651875471711E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1217511578207461E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7225568387040091E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2595287287376242E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1458996755377103E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$31:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.6046546070901094E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0604850724033128E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0764970720654444E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1368500725353732E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2208116660806486E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1827592993505222E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0658982627227388E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8982230355983226E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8829976686792613E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1119913135236816E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.942399702708143E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5215232514277195E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4161711679442172E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.6125995794996431E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.7471027469000228E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4300865271022467E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.7965630121875511E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.2306855092427257E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9425218910766405E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6610979050496528E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.725200305801193E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FVR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$31:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.4291421025132574E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0328148898555902E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6080157725921786E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7686436936273999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1315333320996109E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0265302105884668E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.1468707809379276E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3136942361808055E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7528331102591364E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1538943859058865E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6317090668855065E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3353276078355689E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4954907626302424E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.260382308122601E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8181572456667903E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6122351238306071E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2872537592054198E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4894874978034003E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8378156756703986E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7623575411547779E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8413204832622002E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="227279248"/>
-        <c:axId val="227279640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="227279248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1200"/>
-                  <a:t>Frame Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227279640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227279640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1200"/>
-                  <a:t>Error</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="1200" baseline="0"/>
-                  <a:t> Reduction</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227279248"/>
+        <c:crossAx val="85749120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2314,38 +1403,8 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6181725" y="247649"/>
+    <xdr:pos x="7820025" y="561974"/>
     <xdr:ext cx="5981700" cy="4117975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2360,7 +1419,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2412,7 +1471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2447,7 +1506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2656,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,43 +2518,43 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" t="s">
         <v>12</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>13</v>
-      </c>
-      <c r="P30" t="s">
-        <v>14</v>
       </c>
       <c r="Q30" t="s">
         <v>10</v>
@@ -3538,8 +2597,8 @@
         <v>1.465505963278219E-4</v>
       </c>
       <c r="J31">
-        <f>+MIN(G31:I31)</f>
-        <v>1.4291421025132574E-4</v>
+        <f>+MIN(H31:I31)</f>
+        <v>1.465505963278219E-4</v>
       </c>
       <c r="L31">
         <f>MIN(C31:J31)</f>
@@ -3550,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <f t="shared" ref="N31:P46" si="2">IF($L31=D31,1,0)</f>
         <v>1</v>
       </c>
       <c r="O31">
@@ -3603,8 +2662,8 @@
         <v>2.295290308483801E-4</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J51" si="4">+MIN(G32:I32)</f>
-        <v>6.0328148898555902E-5</v>
+        <f t="shared" ref="J32:J51" si="4">+MIN(H32:I32)</f>
+        <v>8.378642512365175E-5</v>
       </c>
       <c r="L32">
         <f t="shared" ref="L32:L51" si="5">MIN(C32:J32)</f>
@@ -3627,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q52" si="7">IF($L32=J32,1,0)</f>
+        <f t="shared" ref="Q32:Q51" si="7">IF($L32=J32,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3669,7 +2728,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1.6080157725921786E-3</v>
+        <v>1.1032327928670217E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
@@ -3734,7 +2793,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>7.7686436936273999E-4</v>
+        <v>4.1295124361373338E-3</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
@@ -3799,7 +2858,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>1.1315333320996109E-3</v>
+        <v>2.174207795892938E-3</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
@@ -3864,7 +2923,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>5.0265302105884668E-5</v>
+        <v>6.9228104703798469E-5</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
@@ -3929,7 +2988,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>9.1468707809379276E-5</v>
+        <v>1.2280441404550173E-4</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
@@ -3994,7 +3053,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>7.3136942361808055E-4</v>
+        <v>4.2852195131550469E-3</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
@@ -4059,7 +3118,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>1.7528331102591364E-4</v>
+        <v>2.0429484938159348E-4</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
@@ -4124,7 +3183,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>5.1538943859058865E-4</v>
+        <v>2.4450718010674581E-3</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
@@ -4153,43 +3212,43 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f>A40+1</f>
         <v>10</v>
       </c>
       <c r="B41">
         <v>3874.98</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:I50" si="8">C16/$B41</f>
+        <f>C16/$B41</f>
         <v>4.167453767503316E-5</v>
       </c>
       <c r="D41">
-        <f t="shared" si="8"/>
+        <f>D16/$B41</f>
         <v>4.1352729562475157E-5</v>
       </c>
       <c r="E41">
-        <f t="shared" si="8"/>
+        <f>E16/$B41</f>
         <v>3.737774130447125E-5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
+        <f>F16/$B41</f>
         <v>4.942399702708143E-5</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f>G16/$B41</f>
         <v>3.6317090668855065E-5</v>
       </c>
       <c r="H41">
-        <f t="shared" si="8"/>
+        <f>H16/$B41</f>
         <v>1.4108743787064705E-4</v>
       </c>
       <c r="I41">
-        <f t="shared" si="8"/>
+        <f>I16/$B41</f>
         <v>2.235657990492854E-4</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>3.6317090668855065E-5</v>
+        <v>1.4108743787064705E-4</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
@@ -4213,7 +3272,7 @@
       </c>
       <c r="Q41">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -4225,31 +3284,31 @@
         <v>113.99299999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" si="8"/>
+        <f>C17/$B42</f>
         <v>1.1440088426482328E-3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
+        <f>D17/$B42</f>
         <v>1.3526269156878053E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="8"/>
+        <f>E17/$B42</f>
         <v>1.5258305334538086E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
+        <f>F17/$B42</f>
         <v>1.5215232514277195E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f>G17/$B42</f>
         <v>1.3353276078355689E-3</v>
       </c>
       <c r="H42">
-        <f t="shared" si="8"/>
+        <f>H17/$B42</f>
         <v>1.2268823524251491E-3</v>
       </c>
       <c r="I42">
-        <f t="shared" si="8"/>
+        <f>I17/$B42</f>
         <v>6.5121630275543239E-3</v>
       </c>
       <c r="J42">
@@ -4290,31 +3349,31 @@
         <v>251.262</v>
       </c>
       <c r="C43">
-        <f t="shared" si="8"/>
+        <f>C18/$B43</f>
         <v>1.4764827152534007E-3</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f>D18/$B43</f>
         <v>6.3926101041940277E-4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="8"/>
+        <f>E18/$B43</f>
         <v>5.2699174566786858E-4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
+        <f>F18/$B43</f>
         <v>6.4161711679442172E-4</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f>G18/$B43</f>
         <v>6.4954907626302424E-4</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f>H18/$B43</f>
         <v>5.6198310926443317E-4</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
+        <f>I18/$B43</f>
         <v>5.2428938717354794E-4</v>
       </c>
       <c r="J43">
@@ -4355,36 +3414,36 @@
         <v>2592.15</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f>C19/$B44</f>
         <v>4.6445614644214262E-5</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f>D19/$B44</f>
         <v>5.2913604536774494E-5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="8"/>
+        <f>E19/$B44</f>
         <v>5.275273421676986E-5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
+        <f>F19/$B44</f>
         <v>5.6125995794996431E-5</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f>G19/$B44</f>
         <v>5.260382308122601E-5</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f>H19/$B44</f>
         <v>6.125108500665471E-5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
+        <f>I19/$B44</f>
         <v>6.1430086993422448E-5</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>5.260382308122601E-5</v>
+        <v>6.125108500665471E-5</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
@@ -4420,36 +3479,36 @@
         <v>295.97000000000003</v>
       </c>
       <c r="C45">
-        <f t="shared" si="8"/>
+        <f>C20/$B45</f>
         <v>6.2673243909855717E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f>D20/$B45</f>
         <v>5.9115450890292933E-4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="8"/>
+        <f>E20/$B45</f>
         <v>6.2247525087002055E-4</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
+        <f>F20/$B45</f>
         <v>5.7471027469000228E-4</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f>G20/$B45</f>
         <v>4.8181572456667903E-4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="8"/>
+        <f>H20/$B45</f>
         <v>6.3077338919485077E-4</v>
       </c>
       <c r="I45">
-        <f t="shared" si="8"/>
+        <f>I20/$B45</f>
         <v>6.7796398283609817E-4</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>4.8181572456667903E-4</v>
+        <v>6.3077338919485077E-4</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
@@ -4473,7 +3532,7 @@
       </c>
       <c r="Q45">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -4485,36 +3544,36 @@
         <v>187.91800000000001</v>
       </c>
       <c r="C46">
-        <f t="shared" si="8"/>
+        <f>C21/$B46</f>
         <v>1.111729584180334E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="8"/>
+        <f>D21/$B46</f>
         <v>1.2692610606754009E-3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="8"/>
+        <f>E21/$B46</f>
         <v>8.4424057301588995E-4</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
+        <f>F21/$B46</f>
         <v>1.4300865271022467E-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f>G21/$B46</f>
         <v>1.6122351238306071E-3</v>
       </c>
       <c r="H46">
-        <f t="shared" si="8"/>
+        <f>H21/$B46</f>
         <v>4.108031162528337E-3</v>
       </c>
       <c r="I46">
-        <f t="shared" si="8"/>
+        <f>I21/$B46</f>
         <v>8.7645675241328665E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>1.6122351238306071E-3</v>
+        <v>4.108031162528337E-3</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
@@ -4550,31 +3609,31 @@
         <v>2239.17</v>
       </c>
       <c r="C47">
-        <f t="shared" si="8"/>
+        <f>C22/$B47</f>
         <v>1.1202052546255978E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
+        <f>D22/$B47</f>
         <v>1.1527798246671757E-4</v>
       </c>
       <c r="E47">
-        <f t="shared" si="8"/>
+        <f>E22/$B47</f>
         <v>6.8602651875471711E-5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
+        <f>F22/$B47</f>
         <v>8.7965630121875511E-5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <f>G22/$B47</f>
         <v>1.2872537592054198E-4</v>
       </c>
       <c r="H47">
-        <f t="shared" si="8"/>
+        <f>H22/$B47</f>
         <v>8.9170540870054529E-5</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
+        <f>I22/$B47</f>
         <v>1.9269595430449675E-4</v>
       </c>
       <c r="J47">
@@ -4615,31 +3674,31 @@
         <v>176.40899999999999</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
+        <f>C23/$B48</f>
         <v>1.0581602979439825E-3</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f>D23/$B48</f>
         <v>1.4520460974213334E-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="8"/>
+        <f>E23/$B48</f>
         <v>1.1217511578207461E-3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
+        <f>F23/$B48</f>
         <v>1.2306855092427257E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f>G23/$B48</f>
         <v>1.4894874978034003E-3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="8"/>
+        <f>H23/$B48</f>
         <v>7.7269867183647094E-4</v>
       </c>
       <c r="I48">
-        <f t="shared" si="8"/>
+        <f>I23/$B48</f>
         <v>1.0416191917645926E-3</v>
       </c>
       <c r="J48">
@@ -4680,31 +3739,31 @@
         <v>1024.3900000000001</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
+        <f>C24/$B49</f>
         <v>2.1271488397973427E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f>D24/$B49</f>
         <v>1.7658704204453381E-4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="8"/>
+        <f>E24/$B49</f>
         <v>1.7225568387040091E-4</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
+        <f>F24/$B49</f>
         <v>1.9425218910766405E-4</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f>G24/$B49</f>
         <v>1.8378156756703986E-4</v>
       </c>
       <c r="H49">
-        <f t="shared" si="8"/>
+        <f>H24/$B49</f>
         <v>1.5287634592293949E-4</v>
       </c>
       <c r="I49">
-        <f t="shared" si="8"/>
+        <f>I24/$B49</f>
         <v>4.2080457638204197E-4</v>
       </c>
       <c r="J49">
@@ -4745,31 +3804,31 @@
         <v>540.15599999999995</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
+        <f>C25/$B50</f>
         <v>4.1129784728856112E-4</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f>D25/$B50</f>
         <v>4.0601233717666753E-4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="8"/>
+        <f>E25/$B50</f>
         <v>4.2595287287376242E-4</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
+        <f>F25/$B50</f>
         <v>4.6610979050496528E-4</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f>G25/$B50</f>
         <v>3.7623575411547779E-4</v>
       </c>
       <c r="H50">
-        <f t="shared" si="8"/>
+        <f>H25/$B50</f>
         <v>3.5649886329134549E-4</v>
       </c>
       <c r="I50">
-        <f t="shared" si="8"/>
+        <f>I25/$B50</f>
         <v>5.0341382859766441E-4</v>
       </c>
       <c r="J50">
@@ -4810,36 +3869,36 @@
         <v>166.12100000000001</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:I51" si="9">C26/$B51</f>
+        <f>C26/$B51</f>
         <v>1.1884710542315541E-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="9"/>
+        <f>D26/$B51</f>
         <v>1.8808458894420332E-3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="9"/>
+        <f>E26/$B51</f>
         <v>1.1458996755377103E-3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="9"/>
+        <f>F26/$B51</f>
         <v>1.725200305801193E-3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
+        <f>G26/$B51</f>
         <v>1.8413204832622002E-3</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f>H26/$B51</f>
         <v>3.0054478362157703E-3</v>
       </c>
       <c r="I51">
-        <f t="shared" si="9"/>
+        <f>I26/$B51</f>
         <v>2.4465780966885582E-3</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>1.8413204832622002E-3</v>
+        <v>2.4465780966885582E-3</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
@@ -4868,46 +3927,46 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <f>AVERAGE(B41:B51)</f>
+        <f t="shared" ref="B52:J52" si="8">AVERAGE(B41:B51)</f>
         <v>1042.0471818181816</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="10">AVERAGE(C41:C51)</f>
+        <f t="shared" si="8"/>
         <v>6.7543075840056043E-4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.2521265257600661E-4</v>
       </c>
       <c r="E52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.9492096550062918E-4</v>
       </c>
       <c r="F52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.2524550796499018E-4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.4430901135587454E-4</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0097000722206048E-3</v>
       </c>
       <c r="I52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.9426446777706273E-3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="10"/>
-        <v>6.4970076426627962E-4</v>
+        <f t="shared" si="8"/>
+        <v>9.5546703025532309E-4</v>
       </c>
       <c r="L52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M52">
         <f>AVERAGE(M41:M51)*100</f>
@@ -4927,52 +3986,568 @@
       </c>
       <c r="Q52">
         <f>AVERAGE(Q41:Q51)*100</f>
-        <v>54.54545454545454</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="R52">
         <f>SUM(M52:Q52)</f>
-        <v>100</v>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <f>B52*1000</f>
         <v>1042047.1818181815</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:J53" si="11">C52*1000</f>
+        <f t="shared" ref="C53:J53" si="9">C52*1000</f>
         <v>0.67543075840056044</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.72521265257600664</v>
       </c>
       <c r="E53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.59492096550062923</v>
       </c>
       <c r="F53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.72524550796499021</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.74430901135587457</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.0097000722206049</v>
       </c>
       <c r="I53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.9426446777706272</v>
       </c>
       <c r="J53">
-        <f t="shared" si="11"/>
-        <v>0.64970076426627965</v>
+        <f t="shared" si="9"/>
+        <v>0.95546703025532309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ref="B54:H54" si="10">1000*MEDIAN(B41:B51)</f>
+        <v>295970</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="10"/>
+        <v>0.62673243909855714</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>0.59115450890292931</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="10"/>
+        <v>0.52699174566786855</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="10"/>
+        <v>0.57471027469000224</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>0.48181572456667904</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="10"/>
+        <v>0.56198310926443318</v>
+      </c>
+      <c r="I54">
+        <f>1000*MEDIAN(I41:I51)</f>
+        <v>0.52428938717354789</v>
+      </c>
+      <c r="J54">
+        <f>1000*MEDIAN(J41:J51)</f>
+        <v>0.52428938717354789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>4.167453767503316E-5</v>
+      </c>
+      <c r="D60">
+        <v>4.1352729562475157E-5</v>
+      </c>
+      <c r="E60">
+        <v>3.737774130447125E-5</v>
+      </c>
+      <c r="F60">
+        <v>4.942399702708143E-5</v>
+      </c>
+      <c r="G60">
+        <v>3.6317090668855065E-5</v>
+      </c>
+      <c r="H60">
+        <v>1.4108743787064705E-4</v>
+      </c>
+      <c r="I60">
+        <v>2.235657990492854E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1.1440088426482328E-3</v>
+      </c>
+      <c r="D61">
+        <v>1.3526269156878053E-3</v>
+      </c>
+      <c r="E61">
+        <v>1.5258305334538086E-3</v>
+      </c>
+      <c r="F61">
+        <v>1.5215232514277195E-3</v>
+      </c>
+      <c r="G61">
+        <v>1.3353276078355689E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.2268823524251491E-3</v>
+      </c>
+      <c r="I61">
+        <v>6.5121630275543239E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1.4764827152534007E-3</v>
+      </c>
+      <c r="D62">
+        <v>6.3926101041940277E-4</v>
+      </c>
+      <c r="E62">
+        <v>5.2699174566786858E-4</v>
+      </c>
+      <c r="F62">
+        <v>6.4161711679442172E-4</v>
+      </c>
+      <c r="G62">
+        <v>6.4954907626302424E-4</v>
+      </c>
+      <c r="H62">
+        <v>5.2428938717354794E-4</v>
+      </c>
+      <c r="I62">
+        <v>5.2428938717354794E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>4.6445614644214262E-5</v>
+      </c>
+      <c r="D63">
+        <v>5.2913604536774494E-5</v>
+      </c>
+      <c r="E63">
+        <v>5.275273421676986E-5</v>
+      </c>
+      <c r="F63">
+        <v>5.6125995794996431E-5</v>
+      </c>
+      <c r="G63">
+        <v>5.260382308122601E-5</v>
+      </c>
+      <c r="H63">
+        <v>6.125108500665471E-5</v>
+      </c>
+      <c r="I63">
+        <v>6.1430086993422448E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>6.2673243909855717E-4</v>
+      </c>
+      <c r="D64">
+        <v>5.9115450890292933E-4</v>
+      </c>
+      <c r="E64">
+        <v>6.2247525087002055E-4</v>
+      </c>
+      <c r="F64">
+        <v>5.7471027469000228E-4</v>
+      </c>
+      <c r="G64">
+        <v>4.8181572456667903E-4</v>
+      </c>
+      <c r="H64">
+        <v>6.3077338919485077E-4</v>
+      </c>
+      <c r="I64">
+        <v>6.7796398283609817E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1.111729584180334E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.2692610606754009E-3</v>
+      </c>
+      <c r="E65">
+        <v>8.4424057301588995E-4</v>
+      </c>
+      <c r="F65">
+        <v>1.4300865271022467E-3</v>
+      </c>
+      <c r="G65">
+        <v>1.6122351238306071E-3</v>
+      </c>
+      <c r="H65">
+        <v>4.108031162528337E-3</v>
+      </c>
+      <c r="I65">
+        <v>8.7645675241328665E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1.1202052546255978E-4</v>
+      </c>
+      <c r="D66">
+        <v>1.1527798246671757E-4</v>
+      </c>
+      <c r="E66">
+        <v>6.8602651875471711E-5</v>
+      </c>
+      <c r="F66">
+        <v>8.7965630121875511E-5</v>
+      </c>
+      <c r="G66">
+        <v>1.2872537592054198E-4</v>
+      </c>
+      <c r="H66">
+        <v>8.9170540870054529E-5</v>
+      </c>
+      <c r="I66">
+        <v>1.9269595430449675E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1.0581602979439825E-3</v>
+      </c>
+      <c r="D67">
+        <v>1.4520460974213334E-3</v>
+      </c>
+      <c r="E67">
+        <v>1.1217511578207461E-3</v>
+      </c>
+      <c r="F67">
+        <v>1.2306855092427257E-3</v>
+      </c>
+      <c r="G67">
+        <v>1.4894874978034003E-3</v>
+      </c>
+      <c r="H67">
+        <v>7.7269867183647094E-4</v>
+      </c>
+      <c r="I67">
+        <v>1.0416191917645926E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>2.1271488397973427E-4</v>
+      </c>
+      <c r="D68">
+        <v>1.7658704204453381E-4</v>
+      </c>
+      <c r="E68">
+        <v>1.7225568387040091E-4</v>
+      </c>
+      <c r="F68">
+        <v>1.9425218910766405E-4</v>
+      </c>
+      <c r="G68">
+        <v>1.8378156756703986E-4</v>
+      </c>
+      <c r="H68">
+        <v>1.5287634592293949E-4</v>
+      </c>
+      <c r="I68">
+        <v>4.2080457638204197E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>4.1129784728856112E-4</v>
+      </c>
+      <c r="D69">
+        <v>4.0601233717666753E-4</v>
+      </c>
+      <c r="E69">
+        <v>4.2595287287376242E-4</v>
+      </c>
+      <c r="F69">
+        <v>4.6610979050496528E-4</v>
+      </c>
+      <c r="G69">
+        <v>3.7623575411547779E-4</v>
+      </c>
+      <c r="H69">
+        <v>3.5649886329134549E-4</v>
+      </c>
+      <c r="I69">
+        <v>5.0341382859766441E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1.1884710542315541E-3</v>
+      </c>
+      <c r="D70">
+        <v>1.8808458894420332E-3</v>
+      </c>
+      <c r="E70">
+        <v>1.1458996755377103E-3</v>
+      </c>
+      <c r="F70">
+        <v>1.725200305801193E-3</v>
+      </c>
+      <c r="G70">
+        <v>1.8413204832622002E-3</v>
+      </c>
+      <c r="H70">
+        <v>2.4465780966885582E-3</v>
+      </c>
+      <c r="I70">
+        <v>2.4465780966885582E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1.1440088426482328E-3</v>
+      </c>
+      <c r="D71">
+        <v>1.3526269156878053E-3</v>
+      </c>
+      <c r="E71">
+        <v>1.5258305334538086E-3</v>
+      </c>
+      <c r="F71">
+        <v>1.5215232514277195E-3</v>
+      </c>
+      <c r="G71">
+        <v>1.3353276078355689E-3</v>
+      </c>
+      <c r="H71">
+        <v>1.2268823524251491E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.4764827152534007E-3</v>
+      </c>
+      <c r="D72">
+        <v>6.3926101041940277E-4</v>
+      </c>
+      <c r="E72">
+        <v>5.2699174566786858E-4</v>
+      </c>
+      <c r="F72">
+        <v>6.4161711679442172E-4</v>
+      </c>
+      <c r="G72">
+        <v>6.4954907626302424E-4</v>
+      </c>
+      <c r="H72">
+        <v>5.2428938717354794E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>4.6445614644214262E-5</v>
+      </c>
+      <c r="D73">
+        <v>5.2913604536774494E-5</v>
+      </c>
+      <c r="E73">
+        <v>5.275273421676986E-5</v>
+      </c>
+      <c r="F73">
+        <v>5.6125995794996431E-5</v>
+      </c>
+      <c r="G73">
+        <v>5.260382308122601E-5</v>
+      </c>
+      <c r="H73">
+        <v>6.125108500665471E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6.2673243909855717E-4</v>
+      </c>
+      <c r="D74">
+        <v>5.9115450890292933E-4</v>
+      </c>
+      <c r="E74">
+        <v>6.2247525087002055E-4</v>
+      </c>
+      <c r="F74">
+        <v>5.7471027469000228E-4</v>
+      </c>
+      <c r="G74">
+        <v>4.8181572456667903E-4</v>
+      </c>
+      <c r="H74">
+        <v>6.3077338919485077E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1.111729584180334E-3</v>
+      </c>
+      <c r="D75">
+        <v>1.2692610606754009E-3</v>
+      </c>
+      <c r="E75">
+        <v>8.4424057301588995E-4</v>
+      </c>
+      <c r="F75">
+        <v>1.4300865271022467E-3</v>
+      </c>
+      <c r="G75">
+        <v>1.6122351238306071E-3</v>
+      </c>
+      <c r="H75">
+        <v>4.108031162528337E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>1.1202052546255978E-4</v>
+      </c>
+      <c r="D76">
+        <v>1.1527798246671757E-4</v>
+      </c>
+      <c r="E76">
+        <v>6.8602651875471711E-5</v>
+      </c>
+      <c r="F76">
+        <v>8.7965630121875511E-5</v>
+      </c>
+      <c r="G76">
+        <v>1.2872537592054198E-4</v>
+      </c>
+      <c r="H76">
+        <v>8.9170540870054529E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>1.0581602979439825E-3</v>
+      </c>
+      <c r="D77">
+        <v>1.4520460974213334E-3</v>
+      </c>
+      <c r="E77">
+        <v>1.1217511578207461E-3</v>
+      </c>
+      <c r="F77">
+        <v>1.2306855092427257E-3</v>
+      </c>
+      <c r="G77">
+        <v>1.4894874978034003E-3</v>
+      </c>
+      <c r="H77">
+        <v>7.7269867183647094E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2.1271488397973427E-4</v>
+      </c>
+      <c r="D78">
+        <v>1.7658704204453381E-4</v>
+      </c>
+      <c r="E78">
+        <v>1.7225568387040091E-4</v>
+      </c>
+      <c r="F78">
+        <v>1.9425218910766405E-4</v>
+      </c>
+      <c r="G78">
+        <v>1.8378156756703986E-4</v>
+      </c>
+      <c r="H78">
+        <v>1.5287634592293949E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>4.1129784728856112E-4</v>
+      </c>
+      <c r="D79">
+        <v>4.0601233717666753E-4</v>
+      </c>
+      <c r="E79">
+        <v>4.2595287287376242E-4</v>
+      </c>
+      <c r="F79">
+        <v>4.6610979050496528E-4</v>
+      </c>
+      <c r="G79">
+        <v>3.7623575411547779E-4</v>
+      </c>
+      <c r="H79">
+        <v>3.5649886329134549E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1.1884710542315541E-3</v>
+      </c>
+      <c r="D80">
+        <v>1.8808458894420332E-3</v>
+      </c>
+      <c r="E80">
+        <v>1.1458996755377103E-3</v>
+      </c>
+      <c r="F80">
+        <v>1.725200305801193E-3</v>
+      </c>
+      <c r="G80">
+        <v>1.8413204832622002E-3</v>
+      </c>
+      <c r="H80">
+        <v>2.4465780966885582E-3</v>
       </c>
     </row>
   </sheetData>
